--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2110.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2110.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.710421399484437</v>
+        <v>1.191741704940796</v>
       </c>
       <c r="B1">
-        <v>2.119516278336377</v>
+        <v>4.286515235900879</v>
       </c>
       <c r="C1">
-        <v>1.829177519858066</v>
+        <v>2.248613834381104</v>
       </c>
       <c r="D1">
-        <v>1.952107798992728</v>
+        <v>1.741935729980469</v>
       </c>
       <c r="E1">
-        <v>2.338268881063116</v>
+        <v>1.578306555747986</v>
       </c>
     </row>
   </sheetData>
